--- a/biology/Zoologie/Cratena/Cratena.xlsx
+++ b/biology/Zoologie/Cratena/Cratena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cratena est un genre de mollusques nudibranches de la famille des Facelinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits nudibranches éolidiens. Leur corps est allongé, avec un dos recouvert de cérates (appendices servant à la respiration, à la digestion et à la défense) et une tête pourvue de rhinophores (appendices sensoriels) et de longs tentacules buccaux blancs (souvent recourbés vers le haut, donnant l'allure de défenses d'éléphant), comportant à leur base des « taches oculaires ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (23 février 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (23 février 2018) :
 Cratena affinis (Baba, 1949)
 Cratena capensis (Barnard, 1927)
 Cratena cornuta (Risbec, 1928)
